--- a/Documents/Soutenances M1 janvier 2020.xlsx
+++ b/Documents/Soutenances M1 janvier 2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COURS\Master 2\Projet\PlannificationSoutenances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COURS\Master 2\Projet\PlannificationSoutenances\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1887,8 +1887,8 @@
   </sheetPr>
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,11 +1996,11 @@
       </c>
       <c r="N2" s="8">
         <f t="shared" ref="N2:N11" si="1">COUNTIF(K$2:K$49,"="&amp;$L2)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O2" s="15">
         <f>SUM(M2:N2)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2146,11 +2146,11 @@
       </c>
       <c r="N5" s="8">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O5" s="15">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2246,11 +2246,11 @@
       </c>
       <c r="N7" s="8">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O7" s="15">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2296,11 +2296,11 @@
       </c>
       <c r="N8" s="8">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O8" s="15">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2606,7 +2606,7 @@
         <v>15</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="L15" s="15" t="s">
         <v>25</v>
@@ -3066,7 +3066,7 @@
         <v>21</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="P27" s="16"/>
       <c r="Q27" s="31"/>
